--- a/excel/collective/zestawy_dla_uczniow/zestaw_044.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_044.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
   <si>
     <t>ZESTAW ZADAŃ NR 44 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Amelia Rogalska</t>
-  </si>
-  <si>
-    <t>Emilia Bednarska</t>
-  </si>
-  <si>
-    <t>Lena Sikorska</t>
-  </si>
-  <si>
-    <t>Adam Wójcik</t>
-  </si>
-  <si>
-    <t>Amelia Sikorska</t>
+    <t>Zuzanna Borkowska</t>
+  </si>
+  <si>
+    <t>Hanna Kubiak</t>
+  </si>
+  <si>
+    <t>Antoni Mazur</t>
+  </si>
+  <si>
+    <t>Jakub Mazur</t>
+  </si>
+  <si>
+    <t>Amelia Lis</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>3,70</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>4,60</t>
+  </si>
+  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>2,20</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>3,70</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>1,50</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>9,10</t>
+    <t>1,60</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>5,40</t>
   </si>
   <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>7,40</t>
+    <t>6,50</t>
   </si>
   <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,00</t>
+    <t>1,20</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>19,49</t>
+    <t>21,28</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>8,69</t>
+    <t>14,56</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>15,49</t>
+    <t>12,70</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>19,84</t>
+    <t>20,69</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>20,95</t>
+    <t>24,16</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>14,55</t>
-  </si>
-  <si>
-    <t>17,33</t>
-  </si>
-  <si>
-    <t>5,33</t>
-  </si>
-  <si>
-    <t>29,42</t>
-  </si>
-  <si>
-    <t>15,73</t>
+    <t>1,24</t>
+  </si>
+  <si>
+    <t>11,55</t>
+  </si>
+  <si>
+    <t>9,89</t>
+  </si>
+  <si>
+    <t>23,58</t>
+  </si>
+  <si>
+    <t>30,42</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>30,98</t>
-  </si>
-  <si>
-    <t>11,75</t>
-  </si>
-  <si>
-    <t>1,55</t>
-  </si>
-  <si>
-    <t>4,98</t>
-  </si>
-  <si>
-    <t>24,00</t>
+    <t>3,68</t>
+  </si>
+  <si>
+    <t>4,45</t>
+  </si>
+  <si>
+    <t>7,33</t>
+  </si>
+  <si>
+    <t>30,17</t>
+  </si>
+  <si>
+    <t>21,75</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,34 +340,34 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Wilk</t>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Grabowski</t>
   </si>
   <si>
     <t>Kacper</t>
   </si>
   <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Woźniak</t>
+    <t>Piotrowski</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -403,166 +403,130 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Antoni Dąbrowski</t>
-  </si>
-  <si>
-    <t>06.01.1989</t>
-  </si>
-  <si>
-    <t>5 801,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Sadowska</t>
-  </si>
-  <si>
-    <t>09.03.1989</t>
-  </si>
-  <si>
-    <t>13 483,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Dąbrowski</t>
-  </si>
-  <si>
-    <t>27.12.1993</t>
-  </si>
-  <si>
-    <t>13 467,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Król</t>
-  </si>
-  <si>
-    <t>25.09.1989</t>
-  </si>
-  <si>
-    <t>3 740,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Urbaniak</t>
-  </si>
-  <si>
-    <t>01.09.1985</t>
-  </si>
-  <si>
-    <t>3 193,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Czarnecka</t>
-  </si>
-  <si>
-    <t>21.12.1979</t>
-  </si>
-  <si>
-    <t>9 298,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Borkowska</t>
-  </si>
-  <si>
-    <t>27.02.2001</t>
-  </si>
-  <si>
-    <t>9 384,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Rogalska</t>
-  </si>
-  <si>
-    <t>02.11.1994</t>
-  </si>
-  <si>
-    <t>6 716,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Kamiński</t>
-  </si>
-  <si>
-    <t>04.06.1984</t>
-  </si>
-  <si>
-    <t>13 072,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Woźniak</t>
-  </si>
-  <si>
-    <t>20.06.2000</t>
-  </si>
-  <si>
-    <t>4 719,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Kowalski</t>
-  </si>
-  <si>
-    <t>10.05.1998</t>
-  </si>
-  <si>
-    <t>8 870,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Maciejewska</t>
-  </si>
-  <si>
-    <t>22.08.1999</t>
-  </si>
-  <si>
-    <t>14 691,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Kowalczyk</t>
-  </si>
-  <si>
-    <t>24.09.1997</t>
-  </si>
-  <si>
-    <t>2 653,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Grabowski</t>
-  </si>
-  <si>
-    <t>08.01.1975</t>
-  </si>
-  <si>
-    <t>10 990,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Dąbrowski</t>
-  </si>
-  <si>
-    <t>18.01.1986</t>
-  </si>
-  <si>
-    <t>2 569,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Sikorska</t>
-  </si>
-  <si>
-    <t>21.08.2000</t>
-  </si>
-  <si>
-    <t>12 765,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Lewandowski</t>
-  </si>
-  <si>
-    <t>28.07.1979</t>
-  </si>
-  <si>
-    <t>4 023,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Bednarska</t>
-  </si>
-  <si>
-    <t>16.05.1998</t>
-  </si>
-  <si>
-    <t>14 738,00 zł</t>
+    <t>Kacper Jankowski</t>
+  </si>
+  <si>
+    <t>07.07.2000</t>
+  </si>
+  <si>
+    <t>14 265,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Urbaniak</t>
+  </si>
+  <si>
+    <t>22.10.1983</t>
+  </si>
+  <si>
+    <t>6 749,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Szymański</t>
+  </si>
+  <si>
+    <t>13.01.1991</t>
+  </si>
+  <si>
+    <t>3 323,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Kamiński</t>
+  </si>
+  <si>
+    <t>24.04.2003</t>
+  </si>
+  <si>
+    <t>2 509,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Sikorska</t>
+  </si>
+  <si>
+    <t>02.03.1992</t>
+  </si>
+  <si>
+    <t>4 670,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Malinowska</t>
+  </si>
+  <si>
+    <t>03.12.1979</t>
+  </si>
+  <si>
+    <t>2 926,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Kamiński</t>
+  </si>
+  <si>
+    <t>14.02.1981</t>
+  </si>
+  <si>
+    <t>8 410,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Piekarska</t>
+  </si>
+  <si>
+    <t>18.02.1986</t>
+  </si>
+  <si>
+    <t>5 502,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Szymański</t>
+  </si>
+  <si>
+    <t>02.09.1981</t>
+  </si>
+  <si>
+    <t>13 359,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Jankowski</t>
+  </si>
+  <si>
+    <t>02.01.1998</t>
+  </si>
+  <si>
+    <t>14 206,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Woźniak</t>
+  </si>
+  <si>
+    <t>01.02.1998</t>
+  </si>
+  <si>
+    <t>7 132,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kwiatkowski</t>
+  </si>
+  <si>
+    <t>20.02.1989</t>
+  </si>
+  <si>
+    <t>10 833,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Olszewska</t>
+  </si>
+  <si>
+    <t>17.02.1980</t>
+  </si>
+  <si>
+    <t>7 721,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Bednarska</t>
+  </si>
+  <si>
+    <t>13.11.1981</t>
+  </si>
+  <si>
+    <t>12 285,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -634,307 +598,325 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 065,00 zł</t>
+  </si>
+  <si>
+    <t>1 203,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 439,00 zł</t>
+  </si>
+  <si>
+    <t>1 928,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 415,00 zł</t>
+  </si>
+  <si>
+    <t>1 684,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>1 324,00 zł</t>
+  </si>
+  <si>
+    <t>1 827,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 019,00 zł</t>
+  </si>
+  <si>
+    <t>1 151,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 381,00 zł</t>
+  </si>
+  <si>
+    <t>1 864,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 094,00 zł</t>
+  </si>
+  <si>
+    <t>1 422,00 zł</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>773,00 zł</t>
+  </si>
+  <si>
+    <t>904,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>1 489,00 zł</t>
+  </si>
+  <si>
+    <t>1 846,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 181,00 zł</t>
+  </si>
+  <si>
+    <t>1 642,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>975,00 zł</t>
+  </si>
+  <si>
+    <t>1 131,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>1 318,00 zł</t>
+  </si>
+  <si>
+    <t>1 503,00 zł</t>
   </si>
   <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>691,00 zł</t>
-  </si>
-  <si>
-    <t>926,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
+    <t>1 448,00 zł</t>
+  </si>
+  <si>
+    <t>1 955,00 zł</t>
   </si>
   <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>688,00 zł</t>
-  </si>
-  <si>
-    <t>922,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 398,00 zł</t>
-  </si>
-  <si>
-    <t>1 831,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>985,00 zł</t>
-  </si>
-  <si>
-    <t>1 182,00 zł</t>
+    <t>1 358,00 zł</t>
+  </si>
+  <si>
+    <t>1 793,00 zł</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 299,00 zł</t>
+  </si>
+  <si>
+    <t>1 650,00 zł</t>
   </si>
   <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
+    <t>1 083,00 zł</t>
+  </si>
+  <si>
+    <t>1 495,00 zł</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 337,00 zł</t>
+  </si>
+  <si>
+    <t>1 698,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>1 406,00 zł</t>
+  </si>
+  <si>
+    <t>1 772,00 zł</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 023,00 zł</t>
+  </si>
+  <si>
+    <t>1 432,00 zł</t>
+  </si>
+  <si>
+    <t>685,00 zł</t>
+  </si>
+  <si>
+    <t>822,00 zł</t>
+  </si>
+  <si>
+    <t>1 370,00 zł</t>
+  </si>
+  <si>
+    <t>1 808,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>1 341,00 zł</t>
+  </si>
+  <si>
+    <t>1 502,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>934,00 zł</t>
+  </si>
+  <si>
+    <t>1 205,00 zł</t>
+  </si>
+  <si>
+    <t>1 246,00 zł</t>
+  </si>
+  <si>
+    <t>1 445,00 zł</t>
+  </si>
+  <si>
     <t>łódzkie</t>
   </si>
   <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>698,00 zł</t>
-  </si>
-  <si>
-    <t>907,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>832,00 zł</t>
-  </si>
-  <si>
-    <t>1 132,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 357,00 zł</t>
-  </si>
-  <si>
-    <t>1 520,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>1 167,00 zł</t>
-  </si>
-  <si>
-    <t>1 435,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 294,00 zł</t>
-  </si>
-  <si>
-    <t>1 721,00 zł</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 493,00 zł</t>
-  </si>
-  <si>
-    <t>2 016,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 394,00 zł</t>
-  </si>
-  <si>
-    <t>1 547,00 zł</t>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 458,00 zł</t>
+  </si>
+  <si>
+    <t>1 925,00 zł</t>
+  </si>
+  <si>
+    <t>1 277,00 zł</t>
+  </si>
+  <si>
+    <t>1 456,00 zł</t>
   </si>
   <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 216,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 241,00 zł</t>
-  </si>
-  <si>
-    <t>1 601,00 zł</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>562,00 zł</t>
-  </si>
-  <si>
-    <t>618,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
+    <t>1 250,00 zł</t>
+  </si>
+  <si>
+    <t>1 588,00 zł</t>
+  </si>
+  <si>
+    <t>1 218,00 zł</t>
+  </si>
+  <si>
+    <t>1 364,00 zł</t>
+  </si>
+  <si>
+    <t>1 039,00 zł</t>
+  </si>
+  <si>
+    <t>1 236,00 zł</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>777,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>1 252,00 zł</t>
-  </si>
-  <si>
-    <t>1 715,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>668,00 zł</t>
-  </si>
-  <si>
-    <t>848,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>711,00 zł</t>
-  </si>
-  <si>
-    <t>924,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>1 051,00 zł</t>
-  </si>
-  <si>
-    <t>1 440,00 zł</t>
-  </si>
-  <si>
-    <t>1 276,00 zł</t>
-  </si>
-  <si>
-    <t>1 531,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 301,00 zł</t>
-  </si>
-  <si>
-    <t>1 613,00 zł</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>1 211,00 zł</t>
-  </si>
-  <si>
-    <t>1 344,00 zł</t>
-  </si>
-  <si>
-    <t>899,00 zł</t>
-  </si>
-  <si>
-    <t>1 169,00 zł</t>
-  </si>
-  <si>
-    <t>1 429,00 zł</t>
-  </si>
-  <si>
-    <t>1 843,00 zł</t>
-  </si>
-  <si>
-    <t>1 424,00 zł</t>
-  </si>
-  <si>
-    <t>1 695,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>509,00 zł</t>
-  </si>
-  <si>
-    <t>677,00 zł</t>
-  </si>
-  <si>
-    <t>1 206,00 zł</t>
-  </si>
-  <si>
-    <t>1 532,00 zł</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 416,00 zł</t>
-  </si>
-  <si>
-    <t>1 954,00 zł</t>
+    <t>1 017,00 zł</t>
+  </si>
+  <si>
+    <t>1 383,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1494,16 +1476,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1512,19 +1494,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
         <v>4</v>
-      </c>
-      <c r="C18" s="3">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1533,19 +1515,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
         <v>3</v>
       </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
       <c r="F19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1554,19 +1536,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
         <v>4</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
         <v>6</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1575,19 +1557,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3">
         <v>6</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1596,19 +1578,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>4</v>
       </c>
-      <c r="D22" s="3">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1617,19 +1599,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="3">
-        <v>6</v>
-      </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1638,19 +1620,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
       </c>
       <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
       <c r="F24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1659,19 +1641,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D25" s="3">
         <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1680,16 +1662,16 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
         <v>5</v>
       </c>
-      <c r="D26" s="3">
-        <v>6</v>
-      </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
         <v>6</v>
@@ -1701,19 +1683,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="C27" s="3">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>6</v>
-      </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1722,19 +1704,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3">
         <v>6</v>
       </c>
-      <c r="C28" s="3">
+      <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="D28" s="3">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1871,7 +1853,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1886,7 +1868,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1901,7 +1883,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1916,7 +1898,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1931,7 +1913,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2048,7 +2030,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2060,7 +2042,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2072,7 +2054,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2084,7 +2066,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2096,7 +2078,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2144,7 +2126,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2156,7 +2138,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2168,7 +2150,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2180,7 +2162,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2192,7 +2174,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2240,7 +2222,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2252,7 +2234,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2264,7 +2246,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2276,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2288,7 +2270,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2437,19 +2419,19 @@
         <v>4</v>
       </c>
       <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="3">
-        <v>6</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5</v>
-      </c>
       <c r="J12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2463,25 +2445,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2495,25 +2477,25 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2527,25 +2509,25 @@
         <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
       <c r="F15" s="3">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>5</v>
-      </c>
       <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2559,13 +2541,13 @@
         <v>115</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3">
         <v>3</v>
@@ -2631,10 +2613,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32:B34"/>
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2844,77 +2826,33 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="3" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="B28" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
+      <c r="B29" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B30" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2932,10 +2870,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2951,7 +2889,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2961,75 +2899,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3037,22 +2975,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3060,22 +2998,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3083,22 +3021,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3106,22 +3044,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3129,22 +3067,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3152,22 +3090,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3175,22 +3113,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3198,22 +3136,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3221,22 +3159,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3244,22 +3182,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3267,22 +3205,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3290,22 +3228,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3313,22 +3251,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3336,22 +3274,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3359,22 +3297,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3382,22 +3320,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="G31" s="3" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3405,22 +3343,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>276</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3428,22 +3366,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3451,22 +3389,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3474,22 +3412,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3497,22 +3435,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>288</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3520,22 +3458,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3543,22 +3481,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3566,22 +3504,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3589,22 +3527,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3612,22 +3550,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3635,22 +3573,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3658,67 +3596,113 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>305</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>185</v>
+      <c r="G44" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>306</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>185</v>
+      <c r="A48" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>185</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>302</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_044.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_044.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>ZESTAW ZADAŃ NR 44 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 44 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>3,70</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>4,60</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,60</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>5,40</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>6,50</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,20</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>21,28</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>14,56</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>12,70</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>20,69</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>24,16</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>1,24</t>
-  </si>
-  <si>
-    <t>11,55</t>
-  </si>
-  <si>
-    <t>9,89</t>
-  </si>
-  <si>
-    <t>23,58</t>
-  </si>
-  <si>
-    <t>30,42</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>3,68</t>
-  </si>
-  <si>
-    <t>4,45</t>
-  </si>
-  <si>
-    <t>7,33</t>
-  </si>
-  <si>
-    <t>30,17</t>
-  </si>
-  <si>
-    <t>21,75</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -409,126 +331,84 @@
     <t>07.07.2000</t>
   </si>
   <si>
-    <t>14 265,00 zł</t>
-  </si>
-  <si>
     <t>Lena Urbaniak</t>
   </si>
   <si>
     <t>22.10.1983</t>
   </si>
   <si>
-    <t>6 749,00 zł</t>
-  </si>
-  <si>
     <t>Adam Szymański</t>
   </si>
   <si>
     <t>13.01.1991</t>
   </si>
   <si>
-    <t>3 323,00 zł</t>
-  </si>
-  <si>
     <t>Filip Kamiński</t>
   </si>
   <si>
     <t>24.04.2003</t>
   </si>
   <si>
-    <t>2 509,00 zł</t>
-  </si>
-  <si>
     <t>Anna Sikorska</t>
   </si>
   <si>
     <t>02.03.1992</t>
   </si>
   <si>
-    <t>4 670,00 zł</t>
-  </si>
-  <si>
     <t>Maja Malinowska</t>
   </si>
   <si>
     <t>03.12.1979</t>
   </si>
   <si>
-    <t>2 926,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Kamiński</t>
   </si>
   <si>
     <t>14.02.1981</t>
   </si>
   <si>
-    <t>8 410,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Piekarska</t>
   </si>
   <si>
     <t>18.02.1986</t>
   </si>
   <si>
-    <t>5 502,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Szymański</t>
   </si>
   <si>
     <t>02.09.1981</t>
   </si>
   <si>
-    <t>13 359,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Jankowski</t>
   </si>
   <si>
     <t>02.01.1998</t>
   </si>
   <si>
-    <t>14 206,00 zł</t>
-  </si>
-  <si>
     <t>Adam Woźniak</t>
   </si>
   <si>
     <t>01.02.1998</t>
   </si>
   <si>
-    <t>7 132,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kwiatkowski</t>
   </si>
   <si>
     <t>20.02.1989</t>
   </si>
   <si>
-    <t>10 833,00 zł</t>
-  </si>
-  <si>
     <t>Maja Olszewska</t>
   </si>
   <si>
     <t>17.02.1980</t>
   </si>
   <si>
-    <t>7 721,00 zł</t>
-  </si>
-  <si>
     <t>Lena Bednarska</t>
   </si>
   <si>
     <t>13.11.1981</t>
   </si>
   <si>
-    <t>12 285,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -541,9 +421,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -604,12 +481,6 @@
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 065,00 zł</t>
-  </si>
-  <si>
-    <t>1 203,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -622,12 +493,6 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 439,00 zł</t>
-  </si>
-  <si>
-    <t>1 928,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -637,24 +502,12 @@
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 415,00 zł</t>
-  </si>
-  <si>
-    <t>1 684,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
     <t>kwiecień</t>
   </si>
   <si>
-    <t>1 324,00 zł</t>
-  </si>
-  <si>
-    <t>1 827,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -664,12 +517,6 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 019,00 zł</t>
-  </si>
-  <si>
-    <t>1 151,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -682,12 +529,6 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 381,00 zł</t>
-  </si>
-  <si>
-    <t>1 864,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -697,36 +538,18 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 094,00 zł</t>
-  </si>
-  <si>
-    <t>1 422,00 zł</t>
-  </si>
-  <si>
     <t>marzec</t>
   </si>
   <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>773,00 zł</t>
-  </si>
-  <si>
-    <t>904,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>1 489,00 zł</t>
-  </si>
-  <si>
-    <t>1 846,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -736,187 +559,61 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 181,00 zł</t>
-  </si>
-  <si>
-    <t>1 642,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>975,00 zł</t>
-  </si>
-  <si>
-    <t>1 131,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
-    <t>1 318,00 zł</t>
-  </si>
-  <si>
-    <t>1 503,00 zł</t>
-  </si>
-  <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 448,00 zł</t>
-  </si>
-  <si>
-    <t>1 955,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>1 358,00 zł</t>
-  </si>
-  <si>
-    <t>1 793,00 zł</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 299,00 zł</t>
-  </si>
-  <si>
-    <t>1 650,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
-    <t>1 083,00 zł</t>
-  </si>
-  <si>
-    <t>1 495,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 337,00 zł</t>
-  </si>
-  <si>
-    <t>1 698,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
-    <t>1 406,00 zł</t>
-  </si>
-  <si>
-    <t>1 772,00 zł</t>
-  </si>
-  <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 023,00 zł</t>
-  </si>
-  <si>
-    <t>1 432,00 zł</t>
-  </si>
-  <si>
-    <t>685,00 zł</t>
-  </si>
-  <si>
-    <t>822,00 zł</t>
-  </si>
-  <si>
-    <t>1 370,00 zł</t>
-  </si>
-  <si>
-    <t>1 808,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
-    <t>1 341,00 zł</t>
-  </si>
-  <si>
-    <t>1 502,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>934,00 zł</t>
-  </si>
-  <si>
-    <t>1 205,00 zł</t>
-  </si>
-  <si>
-    <t>1 246,00 zł</t>
-  </si>
-  <si>
-    <t>1 445,00 zł</t>
-  </si>
-  <si>
     <t>łódzkie</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 458,00 zł</t>
-  </si>
-  <si>
-    <t>1 925,00 zł</t>
-  </si>
-  <si>
-    <t>1 277,00 zł</t>
-  </si>
-  <si>
-    <t>1 456,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>1 250,00 zł</t>
-  </si>
-  <si>
-    <t>1 588,00 zł</t>
-  </si>
-  <si>
-    <t>1 218,00 zł</t>
-  </si>
-  <si>
-    <t>1 364,00 zł</t>
-  </si>
-  <si>
-    <t>1 039,00 zł</t>
-  </si>
-  <si>
-    <t>1 236,00 zł</t>
-  </si>
-  <si>
     <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 017,00 zł</t>
-  </si>
-  <si>
-    <t>1 383,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -938,7 +635,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -995,14 +694,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1013,8 +712,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1045,30 +744,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,7 +1071,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1446,25 +1146,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1487,7 +1187,7 @@
       <c r="F17" s="3">
         <v>5</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1508,7 +1208,7 @@
       <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1529,7 +1229,7 @@
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1550,7 +1250,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1571,7 +1271,7 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1592,7 +1292,7 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1613,7 +1313,7 @@
       <c r="F23" s="3">
         <v>4</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1634,7 +1334,7 @@
       <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1655,7 +1355,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1676,7 +1376,7 @@
       <c r="F26" s="3">
         <v>6</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1697,7 +1397,7 @@
       <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1718,27 +1418,17 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1772,7 +1462,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1792,7 +1482,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1802,29 +1492,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1832,99 +1522,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3.7</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4.6</v>
       </c>
       <c r="D14" s="3">
         <v>8</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.6</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5.4</v>
       </c>
       <c r="D16" s="3">
         <v>9</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6.5</v>
       </c>
       <c r="D17" s="3">
         <v>9</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.2</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1957,7 +1647,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1982,113 +1672,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>21.28</v>
       </c>
       <c r="C15" s="3">
         <v>44</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>14.56</v>
       </c>
       <c r="C16" s="3">
         <v>17</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>12.7</v>
       </c>
       <c r="C17" s="3">
         <v>34</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>20.69</v>
       </c>
       <c r="C18" s="3">
         <v>32</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>24.16</v>
       </c>
       <c r="C19" s="3">
         <v>40</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2097,94 +1787,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.24</v>
       </c>
       <c r="C24" s="3">
         <v>15</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>11.55</v>
       </c>
       <c r="C25" s="3">
         <v>48</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>9.89</v>
       </c>
       <c r="C26" s="3">
         <v>34</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>23.58</v>
       </c>
       <c r="C27" s="3">
         <v>15</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>30.42</v>
       </c>
       <c r="C28" s="3">
         <v>19</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2193,98 +1883,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3.68</v>
       </c>
       <c r="C33" s="3">
         <v>16</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>4.45</v>
       </c>
       <c r="C34" s="3">
         <v>27</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>7.33</v>
       </c>
       <c r="C35" s="3">
         <v>28</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>30.17</v>
       </c>
       <c r="C36" s="3">
         <v>28</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>21.75</v>
       </c>
       <c r="C37" s="3">
         <v>15</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2307,7 +1997,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2327,90 +2017,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
@@ -2433,16 +2123,16 @@
       <c r="J12" s="3">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -2465,16 +2155,16 @@
       <c r="J13" s="3">
         <v>3</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
@@ -2497,16 +2187,16 @@
       <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2529,16 +2219,16 @@
       <c r="J15" s="3">
         <v>6</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
@@ -2561,40 +2251,40 @@
       <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2627,233 +2317,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>118</v>
+      <c r="A1" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>126</v>
+      <c r="A10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
+      </c>
+      <c r="C11" s="7">
+        <v>14265</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6749</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3323</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2509</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>110</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4670</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2926</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>114</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8410</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5502</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>118</v>
+      </c>
+      <c r="C19" s="7">
+        <v>13359</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>120</v>
+      </c>
+      <c r="C20" s="7">
+        <v>14206</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>159</v>
+        <v>122</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7132</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10833</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>165</v>
+        <v>126</v>
+      </c>
+      <c r="C23" s="7">
+        <v>7721</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>168</v>
+        <v>128</v>
+      </c>
+      <c r="C24" s="7">
+        <v>12285</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>169</v>
+      <c r="A27" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2888,86 +2572,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>174</v>
+      <c r="A1" s="15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>191</v>
+      <c r="A15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2975,22 +2659,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>195</v>
+        <v>152</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1065</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1203</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2998,22 +2682,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>201</v>
+        <v>156</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1439</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1928</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3021,22 +2705,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>206</v>
+        <v>159</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1415</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1684</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3044,22 +2728,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>210</v>
+        <v>159</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1324</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1827</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3067,22 +2751,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>215</v>
+        <v>164</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1019</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1151</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3090,22 +2774,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>221</v>
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1381</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1864</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3113,22 +2797,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>226</v>
+        <v>171</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1094</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1422</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3136,22 +2820,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>230</v>
+        <v>173</v>
+      </c>
+      <c r="D23" s="7">
+        <v>773</v>
+      </c>
+      <c r="E23" s="7">
+        <v>904</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3159,22 +2843,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>234</v>
+        <v>159</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1489</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1846</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3182,22 +2866,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>239</v>
+        <v>178</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1181</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1642</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3205,22 +2889,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>243</v>
+        <v>180</v>
+      </c>
+      <c r="D26" s="7">
+        <v>975</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1131</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3228,22 +2912,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>246</v>
+        <v>178</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1318</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1503</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3251,22 +2935,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>249</v>
+        <v>182</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1448</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1955</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3274,22 +2958,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>252</v>
+        <v>182</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1358</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1793</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3297,22 +2981,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>256</v>
+        <v>185</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1299</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1650</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3320,22 +3004,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>259</v>
+        <v>185</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1083</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1495</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3343,22 +3027,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>263</v>
+        <v>188</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1337</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1698</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3366,22 +3050,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>266</v>
+        <v>178</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1406</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1772</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3389,22 +3073,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>269</v>
+        <v>190</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1023</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1432</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3412,22 +3096,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>271</v>
+        <v>178</v>
+      </c>
+      <c r="D35" s="7">
+        <v>685</v>
+      </c>
+      <c r="E35" s="7">
+        <v>822</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3435,22 +3119,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>273</v>
+        <v>190</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1370</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1808</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>274</v>
+        <v>191</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3458,22 +3142,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>276</v>
+        <v>164</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1341</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1502</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3481,22 +3165,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>280</v>
+        <v>193</v>
+      </c>
+      <c r="D38" s="7">
+        <v>934</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1205</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3504,22 +3188,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>282</v>
+        <v>171</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1246</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1445</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>283</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3527,22 +3211,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>286</v>
+        <v>195</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1458</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1925</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3550,22 +3234,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>288</v>
+        <v>178</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1277</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1456</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>289</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3573,22 +3257,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>291</v>
+        <v>195</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1250</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1588</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3596,22 +3280,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>293</v>
+        <v>152</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1218</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1364</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>274</v>
+        <v>191</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3619,22 +3303,22 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>295</v>
+        <v>193</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1039</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1236</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3642,68 +3326,58 @@
         <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>298</v>
+        <v>197</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1017</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1383</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>289</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="13" t="s">
-        <v>169</v>
+      <c r="A48" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>299</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>300</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>301</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>302</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>303</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B53" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_044.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_044.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>ZESTAW ZADAŃ NR 44 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Zuzanna Borkowska</t>
-  </si>
-  <si>
-    <t>Hanna Kubiak</t>
-  </si>
-  <si>
-    <t>Antoni Mazur</t>
-  </si>
-  <si>
-    <t>Jakub Mazur</t>
-  </si>
-  <si>
-    <t>Amelia Lis</t>
+    <t>Lena Wilk</t>
+  </si>
+  <si>
+    <t>Lena Bednarska</t>
+  </si>
+  <si>
+    <t>Mikołaj Kamiński</t>
+  </si>
+  <si>
+    <t>Filip Kowalczyk</t>
+  </si>
+  <si>
+    <t>Amelia Maciejewska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 44 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
   </si>
   <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,37 +266,37 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Kamiński</t>
   </si>
   <si>
     <t>Hanna</t>
   </si>
   <si>
-    <t>Olszewska</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Grabowski</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Piotrowski</t>
+    <t>Rogalska</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -325,103 +332,130 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Kacper Jankowski</t>
-  </si>
-  <si>
-    <t>07.07.2000</t>
-  </si>
-  <si>
-    <t>Lena Urbaniak</t>
-  </si>
-  <si>
-    <t>22.10.1983</t>
-  </si>
-  <si>
-    <t>Adam Szymański</t>
-  </si>
-  <si>
-    <t>13.01.1991</t>
+    <t>Natalia Urbaniak</t>
+  </si>
+  <si>
+    <t>Aleksander Kowalczyk</t>
+  </si>
+  <si>
+    <t>Filip Krawczyk</t>
+  </si>
+  <si>
+    <t>Natalia Jaworska</t>
+  </si>
+  <si>
+    <t>Filip Mazur</t>
+  </si>
+  <si>
+    <t>Szymon Szymański</t>
+  </si>
+  <si>
+    <t>Lena Maciejewska</t>
+  </si>
+  <si>
+    <t>Jan Nowak</t>
+  </si>
+  <si>
+    <t>Antoni Wiśniewski</t>
+  </si>
+  <si>
+    <t>Julia Wójcik</t>
+  </si>
+  <si>
+    <t>Natalia Kubiak</t>
+  </si>
+  <si>
+    <t>Oliwia Sikorska</t>
+  </si>
+  <si>
+    <t>Maja Malinowska</t>
+  </si>
+  <si>
+    <t>Aleksander Kaczmarek</t>
+  </si>
+  <si>
+    <t>Maja Wójcik</t>
+  </si>
+  <si>
+    <t>Natalia Wójcik</t>
+  </si>
+  <si>
+    <t>Szymon Dąbrowski</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Wojciech Kowalski</t>
+  </si>
+  <si>
+    <t>Amelia Wilk</t>
+  </si>
+  <si>
+    <t>Emilia Zawadzka</t>
+  </si>
+  <si>
+    <t>Julia Zawadzka</t>
+  </si>
+  <si>
+    <t>Natalia Piekarska</t>
   </si>
   <si>
     <t>Filip Kamiński</t>
   </si>
   <si>
-    <t>24.04.2003</t>
-  </si>
-  <si>
-    <t>Anna Sikorska</t>
-  </si>
-  <si>
-    <t>02.03.1992</t>
-  </si>
-  <si>
-    <t>Maja Malinowska</t>
-  </si>
-  <si>
-    <t>03.12.1979</t>
-  </si>
-  <si>
-    <t>Mikołaj Kamiński</t>
-  </si>
-  <si>
-    <t>14.02.1981</t>
-  </si>
-  <si>
-    <t>Emilia Piekarska</t>
-  </si>
-  <si>
-    <t>18.02.1986</t>
-  </si>
-  <si>
-    <t>Kacper Szymański</t>
-  </si>
-  <si>
-    <t>02.09.1981</t>
-  </si>
-  <si>
-    <t>Aleksander Jankowski</t>
-  </si>
-  <si>
-    <t>02.01.1998</t>
-  </si>
-  <si>
-    <t>Adam Woźniak</t>
-  </si>
-  <si>
-    <t>01.02.1998</t>
-  </si>
-  <si>
-    <t>Aleksander Kwiatkowski</t>
-  </si>
-  <si>
-    <t>20.02.1989</t>
-  </si>
-  <si>
-    <t>Maja Olszewska</t>
-  </si>
-  <si>
-    <t>17.02.1980</t>
-  </si>
-  <si>
-    <t>Lena Bednarska</t>
-  </si>
-  <si>
-    <t>13.11.1981</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Natalia Malinowska</t>
+  </si>
+  <si>
+    <t>Emilia Maciejewska</t>
+  </si>
+  <si>
+    <t>Lena Sadowska</t>
+  </si>
+  <si>
+    <t>Wojciech Nowak</t>
+  </si>
+  <si>
+    <t>Adam Grabowski</t>
+  </si>
+  <si>
+    <t>Aleksander Wojciechowski</t>
+  </si>
+  <si>
+    <t>Wojciech Krawczyk</t>
+  </si>
+  <si>
+    <t>Oliwia Malinowska</t>
+  </si>
+  <si>
+    <t>Emilia Górska</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -475,145 +509,139 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
     <t>czerwiec</t>
   </si>
   <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -685,7 +713,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,12 +736,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -744,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -755,13 +777,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1068,7 +1089,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1173,19 +1194,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
       </c>
       <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
       <c r="F17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1194,16 +1215,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
       </c>
       <c r="F18" s="3">
         <v>4</v>
@@ -1215,19 +1236,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1236,16 +1257,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <v>6</v>
       </c>
       <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
         <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
       </c>
       <c r="F20" s="3">
         <v>6</v>
@@ -1260,16 +1281,16 @@
         <v>4</v>
       </c>
       <c r="C21" s="3">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
         <v>5</v>
       </c>
-      <c r="D21" s="3">
-        <v>6</v>
-      </c>
       <c r="E21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1278,19 +1299,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
         <v>6</v>
       </c>
       <c r="D22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
         <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1302,13 +1323,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
         <v>4</v>
@@ -1323,10 +1344,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -1341,19 +1362,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="3">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>5</v>
       </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1362,19 +1383,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1383,19 +1404,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1404,10 +1425,10 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
         <v>4</v>
-      </c>
-      <c r="C28" s="3">
-        <v>5</v>
       </c>
       <c r="D28" s="3">
         <v>6</v>
@@ -1416,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1429,6 +1450,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1462,7 +1489,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1482,7 +1509,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1492,29 +1519,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1522,99 +1549,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3.7</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.2</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4.6</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.7</v>
       </c>
       <c r="D14" s="3">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.6</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.9</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5.4</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>14</v>
       </c>
       <c r="D16" s="3">
-        <v>9</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>6.5</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7.6</v>
       </c>
       <c r="D17" s="3">
         <v>9</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1.2</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>6.3</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1631,10 +1658,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1647,7 +1674,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1672,27 +1699,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1700,85 +1727,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>21.28</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>16.74</v>
       </c>
       <c r="C15" s="3">
-        <v>44</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>14.56</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>24.95</v>
       </c>
       <c r="C16" s="3">
-        <v>17</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>12.7</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>11.24</v>
       </c>
       <c r="C17" s="3">
-        <v>34</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>20.69</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3.05</v>
       </c>
       <c r="C18" s="3">
-        <v>32</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>24.16</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>16.46</v>
       </c>
       <c r="C19" s="3">
-        <v>40</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1787,8 +1814,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1796,85 +1823,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>1.24</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>12.73</v>
       </c>
       <c r="C24" s="3">
-        <v>15</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>11.55</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>22.97</v>
       </c>
       <c r="C25" s="3">
-        <v>48</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>9.89</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>10.98</v>
       </c>
       <c r="C26" s="3">
-        <v>34</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>23.58</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>13.59</v>
       </c>
       <c r="C27" s="3">
-        <v>15</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>30.42</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>23.15</v>
       </c>
       <c r="C28" s="3">
-        <v>19</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1883,8 +1910,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1892,89 +1919,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>3.68</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>19.059999999999999</v>
       </c>
       <c r="C33" s="3">
-        <v>16</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>4.45</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>3.59</v>
       </c>
       <c r="C34" s="3">
-        <v>27</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>7.33</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>11.67</v>
       </c>
       <c r="C35" s="3">
-        <v>28</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>30.17</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>23.95</v>
       </c>
       <c r="C36" s="3">
-        <v>28</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>21.75</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>3.67</v>
       </c>
       <c r="C37" s="3">
-        <v>15</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2017,111 +2052,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
         <v>6</v>
       </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2129,19 +2164,19 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
@@ -2161,28 +2196,28 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
       </c>
       <c r="F14" s="3">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>5</v>
@@ -2193,31 +2228,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
         <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2225,38 +2260,38 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4</v>
+      </c>
+      <c r="J16" s="3">
         <v>3</v>
-      </c>
-      <c r="H16" s="3">
-        <v>6</v>
-      </c>
-      <c r="I16" s="3">
-        <v>6</v>
-      </c>
-      <c r="J16" s="3">
-        <v>2</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2272,7 +2307,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2303,10 +2338,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A28" sqref="A28:B30"/>
+      <selection activeCell="A31" sqref="A31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2317,227 +2352,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>92</v>
+      <c r="A1" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="7">
-        <v>14265</v>
+        <v>103</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9815</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="7">
-        <v>6749</v>
+      <c r="B12" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5441</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3323</v>
+      <c r="B13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="8">
+        <v>13872</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2509</v>
+        <v>106</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C14" s="8">
+        <v>13571</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4670</v>
+        <v>107</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5123</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2926</v>
+        <v>108</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4783</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="7">
-        <v>8410</v>
+        <v>109</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C17" s="8">
+        <v>14964</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5502</v>
+        <v>110</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C18" s="8">
+        <v>4957</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="7">
-        <v>13359</v>
+        <v>111</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5891</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="7">
-        <v>14206</v>
+        <v>112</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4784</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="7">
-        <v>7132</v>
+        <v>113</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C21" s="8">
+        <v>7558</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="7">
-        <v>10833</v>
+        <v>114</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C22" s="8">
+        <v>14071</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="7">
-        <v>7721</v>
+        <v>115</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5908</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="7">
-        <v>12285</v>
+        <v>116</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C24" s="8">
+        <v>8309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C25" s="8">
+        <v>9433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C26" s="8">
+        <v>14047</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="6"/>
+      <c r="A27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C27" s="8">
+        <v>14459</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="6"/>
+      <c r="A30" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2554,10 +2622,212 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A49" sqref="A49:B53"/>
+      <selection activeCell="A10" sqref="A10:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="3">
+        <v>136</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3">
+        <v>152</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3">
+        <v>178</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="3">
+        <v>92</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="3">
+        <v>164</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="3">
+        <v>150</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="3">
+        <v>165</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3">
+        <v>153</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="3">
+        <v>160</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="3">
+        <v>180</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="3">
+        <v>163</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="3">
+        <v>150</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="3">
+        <v>120</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="3">
+        <v>110</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="3">
+        <v>100</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A44" sqref="A44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2572,86 +2842,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>133</v>
+      <c r="A1" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2659,22 +2929,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1065</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1203</v>
+        <v>163</v>
+      </c>
+      <c r="D16" s="8">
+        <v>644</v>
+      </c>
+      <c r="E16" s="8">
+        <v>753</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2682,22 +2952,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1439</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1928</v>
+        <v>167</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1199</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1451</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2705,22 +2975,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1415</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1684</v>
+        <v>171</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1298</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1493</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2728,22 +2998,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1324</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1827</v>
+        <v>174</v>
+      </c>
+      <c r="D19" s="8">
+        <v>849</v>
+      </c>
+      <c r="E19" s="8">
+        <v>942</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2751,22 +3021,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1019</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1151</v>
+        <v>174</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1365</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1734</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2774,22 +3044,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1381</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1864</v>
+        <v>178</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1468</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1938</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2797,22 +3067,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1094</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1422</v>
+        <v>180</v>
+      </c>
+      <c r="D22" s="8">
+        <v>793</v>
+      </c>
+      <c r="E22" s="8">
+        <v>880</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2820,22 +3090,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="7">
-        <v>773</v>
-      </c>
-      <c r="E23" s="7">
-        <v>904</v>
+        <v>182</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1190</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1333</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2843,22 +3113,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1489</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1846</v>
+        <v>184</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1347</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1886</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2866,22 +3136,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1181</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1642</v>
+        <v>180</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1114</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1248</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2889,22 +3159,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="7">
-        <v>975</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1131</v>
+        <v>184</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1373</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1510</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2912,22 +3182,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1318</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1503</v>
+        <v>190</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1106</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1416</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2935,22 +3205,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="7">
-        <v>1448</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1955</v>
+      <c r="D28" s="8">
+        <v>1371</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1631</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2958,22 +3228,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1358</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1793</v>
+        <v>180</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1225</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1654</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2981,22 +3251,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1299</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1650</v>
+        <v>193</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1312</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1588</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3004,22 +3274,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1083</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1495</v>
+        <v>178</v>
+      </c>
+      <c r="D31" s="8">
+        <v>514</v>
+      </c>
+      <c r="E31" s="8">
+        <v>653</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3027,22 +3297,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1337</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1698</v>
+        <v>197</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1202</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1334</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3050,22 +3320,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1406</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1772</v>
+        <v>193</v>
+      </c>
+      <c r="D33" s="8">
+        <v>546</v>
+      </c>
+      <c r="E33" s="8">
+        <v>683</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3073,22 +3343,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1023</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1432</v>
+        <v>178</v>
+      </c>
+      <c r="D34" s="8">
+        <v>616</v>
+      </c>
+      <c r="E34" s="8">
+        <v>715</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3096,22 +3366,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="7">
-        <v>685</v>
-      </c>
-      <c r="E35" s="7">
-        <v>822</v>
+        <v>200</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1436</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1867</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3119,22 +3389,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1370</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1808</v>
+        <v>201</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1424</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1880</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3142,22 +3412,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1341</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1502</v>
+        <v>184</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1448</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1781</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3165,22 +3435,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D38" s="7">
-        <v>934</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1205</v>
+        <v>163</v>
+      </c>
+      <c r="D38" s="8">
+        <v>707</v>
+      </c>
+      <c r="E38" s="8">
+        <v>905</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3188,22 +3458,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1246</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1445</v>
+        <v>203</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1090</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1417</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3214,170 +3484,55 @@
         <v>170</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1458</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1925</v>
+        <v>205</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1044</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1201</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1277</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1456</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1250</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1588</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1218</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1364</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>183</v>
+      <c r="A43" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1039</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1236</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="A44" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" s="7">
-        <v>1017</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1383</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>196</v>
-      </c>
+      <c r="A45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>198</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>200</v>
-      </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>202</v>
-      </c>
-      <c r="B53" s="6"/>
+      <c r="A48" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
